--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_64ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_64ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1877,28 +1877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>135.6237057148703</v>
+        <v>160.0149069422262</v>
       </c>
       <c r="AB2" t="n">
-        <v>185.5663374546199</v>
+        <v>218.939455037725</v>
       </c>
       <c r="AC2" t="n">
-        <v>167.8561466519935</v>
+        <v>198.0441807324424</v>
       </c>
       <c r="AD2" t="n">
-        <v>135623.7057148702</v>
+        <v>160014.9069422262</v>
       </c>
       <c r="AE2" t="n">
-        <v>185566.3374546199</v>
+        <v>218939.455037725</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.027997421720126e-06</v>
+        <v>7.452849818028386e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.772786458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>167856.1466519935</v>
+        <v>198044.1807324424</v>
       </c>
     </row>
     <row r="3">
@@ -1983,28 +1983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.81587207282878</v>
+        <v>89.09681354107843</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.1028650471038</v>
+        <v>121.906190960854</v>
       </c>
       <c r="AC3" t="n">
-        <v>95.07199511983234</v>
+        <v>110.2716351919956</v>
       </c>
       <c r="AD3" t="n">
-        <v>76815.87207282879</v>
+        <v>89096.81354107843</v>
       </c>
       <c r="AE3" t="n">
-        <v>105102.8650471038</v>
+        <v>121906.190960854</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.031539136816602e-06</v>
+        <v>1.115992654708756e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.51953125</v>
       </c>
       <c r="AH3" t="n">
-        <v>95071.99511983234</v>
+        <v>110271.6351919956</v>
       </c>
     </row>
     <row r="4">
@@ -2089,28 +2089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>68.33450100889546</v>
+        <v>80.4448502765529</v>
       </c>
       <c r="AB4" t="n">
-        <v>93.49827898575238</v>
+        <v>110.0681931246557</v>
       </c>
       <c r="AC4" t="n">
-        <v>84.57493446503379</v>
+        <v>99.56343925454601</v>
       </c>
       <c r="AD4" t="n">
-        <v>68334.50100889546</v>
+        <v>80444.8502765529</v>
       </c>
       <c r="AE4" t="n">
-        <v>93498.27898575237</v>
+        <v>110068.1931246557</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.634403615794093e-06</v>
+        <v>1.227538367181543e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.2900390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>84574.93446503379</v>
+        <v>99563.43925454601</v>
       </c>
     </row>
     <row r="5">
@@ -2195,28 +2195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>68.49638858246925</v>
+        <v>80.60673785012669</v>
       </c>
       <c r="AB5" t="n">
-        <v>93.71978070589161</v>
+        <v>110.2896948447949</v>
       </c>
       <c r="AC5" t="n">
-        <v>84.77529637188263</v>
+        <v>99.76380116139484</v>
       </c>
       <c r="AD5" t="n">
-        <v>68496.38858246926</v>
+        <v>80606.73785012669</v>
       </c>
       <c r="AE5" t="n">
-        <v>93719.78070589161</v>
+        <v>110289.6948447949</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.633750053558868e-06</v>
+        <v>1.227417441056824e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.2900390625</v>
       </c>
       <c r="AH5" t="n">
-        <v>84775.29637188264</v>
+        <v>99763.80116139483</v>
       </c>
     </row>
   </sheetData>
@@ -2492,28 +2492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.1699952888167</v>
+        <v>115.9337969300849</v>
       </c>
       <c r="AB2" t="n">
-        <v>142.5299832099458</v>
+        <v>158.6257355978213</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.9271216545149</v>
+        <v>143.486718025027</v>
       </c>
       <c r="AD2" t="n">
-        <v>104169.9952888167</v>
+        <v>115933.7969300848</v>
       </c>
       <c r="AE2" t="n">
-        <v>142529.9832099458</v>
+        <v>158625.7355978213</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.986824305057374e-06</v>
+        <v>9.505656753995881e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.152669270833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>128927.1216545149</v>
+        <v>143486.718025027</v>
       </c>
     </row>
     <row r="3">
@@ -2598,28 +2598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>64.54139118991378</v>
+        <v>76.21985197661027</v>
       </c>
       <c r="AB3" t="n">
-        <v>88.3083787912293</v>
+        <v>104.2873640569071</v>
       </c>
       <c r="AC3" t="n">
-        <v>79.88035106100367</v>
+        <v>94.33432439957696</v>
       </c>
       <c r="AD3" t="n">
-        <v>64541.39118991377</v>
+        <v>76219.85197661027</v>
       </c>
       <c r="AE3" t="n">
-        <v>88308.3787912293</v>
+        <v>104287.3640569071</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.837119538773243e-06</v>
+        <v>1.303260502995992e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.2998046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>79880.35106100366</v>
+        <v>94334.32439957696</v>
       </c>
     </row>
     <row r="4">
@@ -2704,28 +2704,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>64.72543493823287</v>
+        <v>76.40389572492936</v>
       </c>
       <c r="AB4" t="n">
-        <v>88.56019556711648</v>
+        <v>104.5391808327943</v>
       </c>
       <c r="AC4" t="n">
-        <v>80.10813479722731</v>
+        <v>94.56210813580061</v>
       </c>
       <c r="AD4" t="n">
-        <v>64725.43493823287</v>
+        <v>76403.89572492936</v>
       </c>
       <c r="AE4" t="n">
-        <v>88560.19556711648</v>
+        <v>104539.1808327943</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.831710730865529e-06</v>
+        <v>1.302229500733351e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.301432291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>80108.13479722731</v>
+        <v>94562.10813580062</v>
       </c>
     </row>
   </sheetData>
@@ -3001,28 +3001,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.60922018014277</v>
+        <v>68.15800352590513</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.8234765898645</v>
+        <v>93.25678734300571</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.30067461359026</v>
+        <v>84.35649044573513</v>
       </c>
       <c r="AD2" t="n">
-        <v>57609.22018014277</v>
+        <v>68158.00352590514</v>
       </c>
       <c r="AE2" t="n">
-        <v>78823.4765898645</v>
+        <v>93256.78734300571</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.865961568380189e-06</v>
+        <v>1.462270129836078e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.555338541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>71300.67461359026</v>
+        <v>84356.49044573514</v>
       </c>
     </row>
   </sheetData>
@@ -3298,28 +3298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.33830050609058</v>
+        <v>75.39543740686238</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.03050115789389</v>
+        <v>103.1593636719747</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.62899367899</v>
+        <v>93.31397878822366</v>
       </c>
       <c r="AD2" t="n">
-        <v>64338.30050609057</v>
+        <v>75395.43740686239</v>
       </c>
       <c r="AE2" t="n">
-        <v>88030.5011578939</v>
+        <v>103159.3636719747</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.503903431894214e-06</v>
+        <v>1.320517257208991e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.579752604166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>79628.99367898999</v>
+        <v>93313.97878822367</v>
       </c>
     </row>
     <row r="3">
@@ -3404,28 +3404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.77616056389454</v>
+        <v>70.66270526407415</v>
       </c>
       <c r="AB3" t="n">
-        <v>81.78838002157491</v>
+        <v>96.68383076080886</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.98261182304726</v>
+        <v>87.45646164962989</v>
       </c>
       <c r="AD3" t="n">
-        <v>59776.16056389453</v>
+        <v>70662.70526407415</v>
       </c>
       <c r="AE3" t="n">
-        <v>81788.38002157491</v>
+        <v>96683.83076080887</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.97653966099699e-06</v>
+        <v>1.416478752247767e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.405598958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>73982.61182304726</v>
+        <v>87456.46164962988</v>
       </c>
     </row>
   </sheetData>
@@ -3701,28 +3701,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.64892095999926</v>
+        <v>76.65655669941435</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.50955283145325</v>
+        <v>104.8848827247</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.11214989457777</v>
+        <v>94.87481672433859</v>
       </c>
       <c r="AD2" t="n">
-        <v>56648.92095999926</v>
+        <v>76656.55669941436</v>
       </c>
       <c r="AE2" t="n">
-        <v>77509.55283145324</v>
+        <v>104884.8827247</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.614414505836238e-06</v>
+        <v>1.47290091503265e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.75390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>70112.14989457777</v>
+        <v>94874.81672433858</v>
       </c>
     </row>
   </sheetData>
@@ -3998,28 +3998,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.8434836373771</v>
+        <v>122.7208034735198</v>
       </c>
       <c r="AB2" t="n">
-        <v>151.6609443819688</v>
+        <v>167.9120173721409</v>
       </c>
       <c r="AC2" t="n">
-        <v>137.1866367076674</v>
+        <v>151.8867301001868</v>
       </c>
       <c r="AD2" t="n">
-        <v>110843.4836373771</v>
+        <v>122720.8034735198</v>
       </c>
       <c r="AE2" t="n">
-        <v>151660.9443819688</v>
+        <v>167912.0173721409</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.736329540236552e-06</v>
+        <v>8.955279817304337e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.289388020833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>137186.6367076674</v>
+        <v>151886.7301001868</v>
       </c>
     </row>
     <row r="3">
@@ -4104,28 +4104,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>66.25423157717219</v>
+        <v>78.0462105587433</v>
       </c>
       <c r="AB3" t="n">
-        <v>90.65196257425984</v>
+        <v>106.7862684422343</v>
       </c>
       <c r="AC3" t="n">
-        <v>82.00026649702302</v>
+        <v>96.59473685760368</v>
       </c>
       <c r="AD3" t="n">
-        <v>66254.23157717219</v>
+        <v>78046.2105587433</v>
       </c>
       <c r="AE3" t="n">
-        <v>90651.96257425984</v>
+        <v>106786.2684422343</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.731863234405172e-06</v>
+        <v>1.272836242575106e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.314453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>82000.26649702303</v>
+        <v>96594.73685760368</v>
       </c>
     </row>
     <row r="4">
@@ -4210,28 +4210,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>66.24345862740152</v>
+        <v>78.03543760897263</v>
       </c>
       <c r="AB4" t="n">
-        <v>90.63722254911461</v>
+        <v>106.7715284170891</v>
       </c>
       <c r="AC4" t="n">
-        <v>81.9869332391899</v>
+        <v>96.58140359977054</v>
       </c>
       <c r="AD4" t="n">
-        <v>66243.45862740152</v>
+        <v>78035.43760897263</v>
       </c>
       <c r="AE4" t="n">
-        <v>90637.22254911461</v>
+        <v>106771.5284170891</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.722961438858468e-06</v>
+        <v>1.271153123414584e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.317708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>81986.93323918989</v>
+        <v>96581.40359977054</v>
       </c>
     </row>
   </sheetData>
@@ -4507,28 +4507,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.901599959645</v>
+        <v>76.41543707467065</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.85527938617909</v>
+        <v>104.5549722166787</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.42488079215097</v>
+        <v>94.57639241217048</v>
       </c>
       <c r="AD2" t="n">
-        <v>56901.59995964501</v>
+        <v>76415.43707467066</v>
       </c>
       <c r="AE2" t="n">
-        <v>77855.27938617909</v>
+        <v>104554.9722166788</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.321748245185579e-06</v>
+        <v>1.449302981730507e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.94921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>70424.88079215097</v>
+        <v>94576.39241217048</v>
       </c>
     </row>
   </sheetData>
@@ -4804,28 +4804,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.17560239866079</v>
+        <v>95.88084287740286</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.122087481546</v>
+        <v>131.1883991890599</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.56657597456456</v>
+        <v>118.6679624945655</v>
       </c>
       <c r="AD2" t="n">
-        <v>73175.60239866079</v>
+        <v>95880.84287740286</v>
       </c>
       <c r="AE2" t="n">
-        <v>100122.087481546</v>
+        <v>131188.3991890599</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.963338124173382e-06</v>
+        <v>1.168806031043945e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.716471354166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>90566.57597456456</v>
+        <v>118667.9624945655</v>
       </c>
     </row>
     <row r="3">
@@ -4910,28 +4910,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.23364359748177</v>
+        <v>73.54368291811802</v>
       </c>
       <c r="AB3" t="n">
-        <v>85.15081672462705</v>
+        <v>100.6257114868336</v>
       </c>
       <c r="AC3" t="n">
-        <v>77.02414228637075</v>
+        <v>91.02213481162839</v>
       </c>
       <c r="AD3" t="n">
-        <v>62233.64359748177</v>
+        <v>73543.68291811802</v>
       </c>
       <c r="AE3" t="n">
-        <v>85150.81672462705</v>
+        <v>100625.7114868336</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.920159084772916e-06</v>
+        <v>1.356341617001184e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.340494791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>77024.14228637074</v>
+        <v>91022.13481162839</v>
       </c>
     </row>
   </sheetData>
@@ -5207,28 +5207,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.66194070651024</v>
+        <v>109.3079074810657</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.6253758153339</v>
+        <v>149.5599013400658</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.8723574919469</v>
+        <v>135.2861142648505</v>
       </c>
       <c r="AD2" t="n">
-        <v>97661.94070651024</v>
+        <v>109307.9074810657</v>
       </c>
       <c r="AE2" t="n">
-        <v>133625.3758153339</v>
+        <v>149559.9013400658</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.263128863060456e-06</v>
+        <v>1.011943408195822e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.015950520833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>120872.3574919469</v>
+        <v>135286.1142648505</v>
       </c>
     </row>
     <row r="3">
@@ -5313,28 +5313,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>63.89441587563924</v>
+        <v>75.45504179562307</v>
       </c>
       <c r="AB3" t="n">
-        <v>87.42315862370286</v>
+        <v>103.2409170262371</v>
       </c>
       <c r="AC3" t="n">
-        <v>79.07961506385138</v>
+        <v>93.38774880481613</v>
       </c>
       <c r="AD3" t="n">
-        <v>63894.41587563924</v>
+        <v>75455.04179562308</v>
       </c>
       <c r="AE3" t="n">
-        <v>87423.15862370287</v>
+        <v>103240.9170262371</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.845704393847136e-06</v>
+        <v>1.31622569312934e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.317708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>79079.61506385138</v>
+        <v>93387.74880481613</v>
       </c>
     </row>
     <row r="4">
@@ -5419,28 +5419,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>63.81924822550859</v>
+        <v>75.37987414549245</v>
       </c>
       <c r="AB4" t="n">
-        <v>87.3203109286315</v>
+        <v>103.1380693311657</v>
       </c>
       <c r="AC4" t="n">
-        <v>78.98658300844993</v>
+        <v>93.29471674941469</v>
       </c>
       <c r="AD4" t="n">
-        <v>63819.24822550859</v>
+        <v>75379.87414549245</v>
       </c>
       <c r="AE4" t="n">
-        <v>87320.3109286315</v>
+        <v>103138.0693311657</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.871152746600223e-06</v>
+        <v>1.321118655754419e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.3095703125</v>
       </c>
       <c r="AH4" t="n">
-        <v>78986.58300844993</v>
+        <v>93294.71674941469</v>
       </c>
     </row>
   </sheetData>
@@ -5716,28 +5716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.003717046323</v>
+        <v>150.1894279250618</v>
       </c>
       <c r="AB2" t="n">
-        <v>172.4038445543731</v>
+        <v>205.4958011769059</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.9498636004672</v>
+        <v>185.8835703278089</v>
       </c>
       <c r="AD2" t="n">
-        <v>126003.717046323</v>
+        <v>150189.4279250618</v>
       </c>
       <c r="AE2" t="n">
-        <v>172403.8445543731</v>
+        <v>205495.8011769059</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.267338781057303e-06</v>
+        <v>7.949728486722209e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.5888671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>155949.8636004672</v>
+        <v>185883.5703278088</v>
       </c>
     </row>
     <row r="3">
@@ -5822,28 +5822,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>73.54388773453961</v>
+        <v>85.55149182788841</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.6259917256974</v>
+        <v>117.0553253843146</v>
       </c>
       <c r="AC3" t="n">
-        <v>91.02238830488842</v>
+        <v>105.883729417847</v>
       </c>
       <c r="AD3" t="n">
-        <v>73543.8877345396</v>
+        <v>85551.49182788841</v>
       </c>
       <c r="AE3" t="n">
-        <v>100625.9917256974</v>
+        <v>117055.3253843146</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.230429437477792e-06</v>
+        <v>1.160681748622684e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.459309895833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>91022.38830488842</v>
+        <v>105883.729417847</v>
       </c>
     </row>
     <row r="4">
@@ -5928,28 +5928,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>67.65614259367875</v>
+        <v>79.66374668702757</v>
       </c>
       <c r="AB4" t="n">
-        <v>92.57011907499221</v>
+        <v>108.9994527336094</v>
       </c>
       <c r="AC4" t="n">
-        <v>83.73535683347568</v>
+        <v>98.59669794643423</v>
       </c>
       <c r="AD4" t="n">
-        <v>67656.14259367876</v>
+        <v>79663.74668702757</v>
       </c>
       <c r="AE4" t="n">
-        <v>92570.11907499221</v>
+        <v>108999.4527336094</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.66174658970825e-06</v>
+        <v>1.241032862696848e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.2998046875</v>
       </c>
       <c r="AH4" t="n">
-        <v>83735.35683347567</v>
+        <v>98596.69794643423</v>
       </c>
     </row>
   </sheetData>
@@ -6225,28 +6225,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.66937704779761</v>
+        <v>76.87520139147814</v>
       </c>
       <c r="AB2" t="n">
-        <v>89.85173880520912</v>
+        <v>105.1840420383046</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.27641496136914</v>
+        <v>95.14542469292556</v>
       </c>
       <c r="AD2" t="n">
-        <v>65669.37704779761</v>
+        <v>76875.20139147814</v>
       </c>
       <c r="AE2" t="n">
-        <v>89851.73880520913</v>
+        <v>105184.0420383046</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.466692272805457e-06</v>
+        <v>1.2962467556207e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.561848958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>81276.41496136914</v>
+        <v>95145.42469292556</v>
       </c>
     </row>
     <row r="3">
@@ -6331,28 +6331,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>60.64283200519206</v>
+        <v>71.67806414828037</v>
       </c>
       <c r="AB3" t="n">
-        <v>82.9741981224031</v>
+        <v>98.07308958065167</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.05525710863894</v>
+        <v>88.71313155754432</v>
       </c>
       <c r="AD3" t="n">
-        <v>60642.83200519206</v>
+        <v>71678.06414828038</v>
       </c>
       <c r="AE3" t="n">
-        <v>82974.19812240309</v>
+        <v>98073.08958065166</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.960292489113057e-06</v>
+        <v>1.395188788420542e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.381184895833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>75055.25710863894</v>
+        <v>88713.13155754432</v>
       </c>
     </row>
   </sheetData>
@@ -6628,28 +6628,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.02519335669924</v>
+        <v>68.58519101755056</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.39262944147015</v>
+        <v>93.84128411525674</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.8155083158499</v>
+        <v>84.88520366638907</v>
       </c>
       <c r="AD2" t="n">
-        <v>58025.19335669924</v>
+        <v>68585.19101755056</v>
       </c>
       <c r="AE2" t="n">
-        <v>79392.62944147016</v>
+        <v>93841.28411525674</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.954098326574147e-06</v>
+        <v>1.454840859401663e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.482096354166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>71815.5083158499</v>
+        <v>84885.20366638908</v>
       </c>
     </row>
   </sheetData>
@@ -10994,28 +10994,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.07922974361738</v>
+        <v>67.42995580108287</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.09832029308298</v>
+        <v>92.26064032670561</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.64472621601008</v>
+        <v>83.4554143025693</v>
       </c>
       <c r="AD2" t="n">
-        <v>57079.22974361738</v>
+        <v>67429.95580108286</v>
       </c>
       <c r="AE2" t="n">
-        <v>78098.32029308297</v>
+        <v>92260.64032670562</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.766586417330906e-06</v>
+        <v>1.47095829255496e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.638346354166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>70644.72621601008</v>
+        <v>83455.41430256929</v>
       </c>
     </row>
   </sheetData>
@@ -11291,28 +11291,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.61062491562205</v>
+        <v>77.12309176521354</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.50783977977682</v>
+        <v>105.5232165838006</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.67902138678608</v>
+        <v>95.45222889583407</v>
       </c>
       <c r="AD2" t="n">
-        <v>67610.62491562206</v>
+        <v>77123.09176521354</v>
       </c>
       <c r="AE2" t="n">
-        <v>92507.83977977681</v>
+        <v>105523.2165838006</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.825891728521907e-06</v>
+        <v>1.385704056285536e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.289388020833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>83679.02138678607</v>
+        <v>95452.22889583407</v>
       </c>
     </row>
   </sheetData>
@@ -11588,28 +11588,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.76051020611678</v>
+        <v>101.721681953852</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.7636047324466</v>
+        <v>139.1800928930875</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.47879754397852</v>
+        <v>125.8969401678959</v>
       </c>
       <c r="AD2" t="n">
-        <v>78760.51020611677</v>
+        <v>101721.681953852</v>
       </c>
       <c r="AE2" t="n">
-        <v>107763.6047324466</v>
+        <v>139180.0928930875</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.633651067538884e-06</v>
+        <v>1.093254041983891e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.845052083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>97478.79754397852</v>
+        <v>125896.9401678959</v>
       </c>
     </row>
     <row r="3">
@@ -11694,28 +11694,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>63.05771797085276</v>
+        <v>74.49572292598559</v>
       </c>
       <c r="AB3" t="n">
-        <v>86.27835163786818</v>
+        <v>101.9283346266382</v>
       </c>
       <c r="AC3" t="n">
-        <v>78.04406684999769</v>
+        <v>92.20043742721353</v>
       </c>
       <c r="AD3" t="n">
-        <v>63057.71797085275</v>
+        <v>74495.7229259856</v>
       </c>
       <c r="AE3" t="n">
-        <v>86278.35163786818</v>
+        <v>101928.3346266382</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.886076851991401e-06</v>
+        <v>1.336297058798867e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.327473958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>78044.06684999769</v>
+        <v>92200.43742721353</v>
       </c>
     </row>
   </sheetData>
@@ -11991,28 +11991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.3962408294806</v>
+        <v>142.199310037137</v>
       </c>
       <c r="AB2" t="n">
-        <v>161.9949599763305</v>
+        <v>194.5633693835296</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.5343883575885</v>
+        <v>175.9945144810245</v>
       </c>
       <c r="AD2" t="n">
-        <v>118396.2408294806</v>
+        <v>142199.310037137</v>
       </c>
       <c r="AE2" t="n">
-        <v>161994.9599763305</v>
+        <v>194563.3693835296</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.485791692735039e-06</v>
+        <v>8.417104674256607e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.4423828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>146534.3883575885</v>
+        <v>175994.5144810245</v>
       </c>
     </row>
     <row r="3">
@@ -12097,28 +12097,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>70.21613306741335</v>
+        <v>82.11771242551708</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.07281097996299</v>
+        <v>112.3570769183367</v>
       </c>
       <c r="AC3" t="n">
-        <v>86.90375673909611</v>
+        <v>101.6338751914274</v>
       </c>
       <c r="AD3" t="n">
-        <v>70216.13306741335</v>
+        <v>82117.71242551708</v>
       </c>
       <c r="AE3" t="n">
-        <v>96072.81097996299</v>
+        <v>112357.0769183367</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.445472770915558e-06</v>
+        <v>1.20942350211516e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.395833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>86903.7567390961</v>
+        <v>101633.8751914274</v>
       </c>
     </row>
     <row r="4">
@@ -12203,28 +12203,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>66.36380640321362</v>
+        <v>78.26538576131735</v>
       </c>
       <c r="AB4" t="n">
-        <v>90.8018876853498</v>
+        <v>107.0861536237235</v>
       </c>
       <c r="AC4" t="n">
-        <v>82.13588296593181</v>
+        <v>96.86600141826311</v>
       </c>
       <c r="AD4" t="n">
-        <v>66363.80640321362</v>
+        <v>78265.38576131735</v>
       </c>
       <c r="AE4" t="n">
-        <v>90801.88768534979</v>
+        <v>107086.1536237235</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.750276200440317e-06</v>
+        <v>1.266616580775887e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.288411458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>82135.88296593181</v>
+        <v>96866.00141826311</v>
       </c>
     </row>
   </sheetData>
@@ -12500,28 +12500,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.61616609833241</v>
+        <v>97.85130067877836</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.9343508730493</v>
+        <v>133.8844664833634</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.53780931607491</v>
+        <v>121.1067209102559</v>
       </c>
       <c r="AD2" t="n">
-        <v>79616.16609833241</v>
+        <v>97851.30067877835</v>
       </c>
       <c r="AE2" t="n">
-        <v>108934.3508730493</v>
+        <v>133884.4664833634</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.939578412935427e-06</v>
+        <v>1.235351074845912e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.0185546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>98537.80931607491</v>
+        <v>121106.7209102559</v>
       </c>
     </row>
   </sheetData>
@@ -12797,28 +12797,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.83243804629075</v>
+        <v>70.56113367461293</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.86538135577665</v>
+        <v>96.54485603108583</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.05226425798487</v>
+        <v>87.33075047305934</v>
       </c>
       <c r="AD2" t="n">
-        <v>59832.43804629075</v>
+        <v>70561.13367461294</v>
       </c>
       <c r="AE2" t="n">
-        <v>81865.38135577666</v>
+        <v>96544.85603108583</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.857021598202905e-06</v>
+        <v>1.412055114914509e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.48046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>74052.26425798488</v>
+        <v>87330.75047305934</v>
       </c>
     </row>
     <row r="3">
@@ -12903,28 +12903,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.9431007606518</v>
+        <v>69.67179638897399</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.64855084677407</v>
+        <v>95.32802552208325</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.95156634492875</v>
+        <v>86.23005256000322</v>
       </c>
       <c r="AD3" t="n">
-        <v>58943.1007606518</v>
+        <v>69671.79638897399</v>
       </c>
       <c r="AE3" t="n">
-        <v>80648.55084677407</v>
+        <v>95328.02552208325</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.981390683736535e-06</v>
+        <v>1.43766623496859e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.4365234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>72951.56634492875</v>
+        <v>86230.05256000321</v>
       </c>
     </row>
   </sheetData>
@@ -13200,28 +13200,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.9052440748527</v>
+        <v>80.25189225819773</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.27919482800166</v>
+        <v>109.8041794512353</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.28132079532131</v>
+        <v>99.32462267557126</v>
       </c>
       <c r="AD2" t="n">
-        <v>68905.2440748527</v>
+        <v>80251.89225819772</v>
       </c>
       <c r="AE2" t="n">
-        <v>94279.19482800167</v>
+        <v>109804.1794512353</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.248355202740528e-06</v>
+        <v>1.23791420524451e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.620442708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>85281.32079532131</v>
+        <v>99324.62267557126</v>
       </c>
     </row>
     <row r="3">
@@ -13306,28 +13306,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.4378757210666</v>
+        <v>72.61393170381943</v>
       </c>
       <c r="AB3" t="n">
-        <v>84.06201200931538</v>
+        <v>99.35358485770217</v>
       </c>
       <c r="AC3" t="n">
-        <v>76.03925156494105</v>
+        <v>89.87141816253995</v>
       </c>
       <c r="AD3" t="n">
-        <v>61437.8757210666</v>
+        <v>72613.93170381943</v>
       </c>
       <c r="AE3" t="n">
-        <v>84062.01200931538</v>
+        <v>99353.58485770217</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.93761930791103e-06</v>
+        <v>1.374470114643111e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.360026041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>76039.25156494105</v>
+        <v>89871.41816253995</v>
       </c>
     </row>
   </sheetData>
